--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\workspace\YGO_draft\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52B74C-FDEC-4A5B-B31F-EB421EE4191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E30C5A-9BC2-41EB-AF02-545DC5F1697D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8707" uniqueCount="4358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9067" uniqueCount="4359">
   <si>
     <t>Starlight_Road</t>
   </si>
@@ -13099,13 +13099,16 @@
   </si>
   <si>
     <t>Defender,_the_Magical_Knight</t>
+  </si>
+  <si>
+    <t>Tuner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13118,8 +13121,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13160,6 +13169,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor rgb="FFF218A8"/>
       </patternFill>
     </fill>
   </fills>
@@ -13203,7 +13218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -13216,6 +13231,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13545,10 +13562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4354"/>
+  <dimension ref="A1:B4535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="A677" sqref="A677"/>
+    <sheetView tabSelected="1" topLeftCell="A4340" workbookViewId="0">
+      <selection activeCell="F4355" sqref="F4355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48389,37 +48406,1478 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4356" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4356" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4357" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4357" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4358" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4358" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4359" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4359" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4360" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4360" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4361" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4361" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4362" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4362" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4363" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4363" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4364" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4364" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4365" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4365" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4366" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4366" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4367" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4367" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4368" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4368" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4369" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4369" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4370" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B4370" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4371" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4371" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4372" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4372" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4373" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4373" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4374" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B4374" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4375" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4375" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4376" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B4376" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4377" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B4377" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B4378" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4379" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="B4379" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4380" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B4380" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4381" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B4381" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B4382" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4383" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B4384" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B4385" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4386" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="B4386" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4387" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="B4387" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4388" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="B4388" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4389" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="B4389" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4390" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="B4390" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4391" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="B4391" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4392" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="B4392" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4393" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="B4393" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4394" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="B4394" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4395" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="B4395" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4396" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="B4396" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4397" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="B4397" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4398" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="B4398" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4399" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="B4399" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4400" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="B4400" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4401" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4401" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4402" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="B4402" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4403" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="B4403" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4404" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="B4404" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4405" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="B4405" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4406" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="B4406" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4407" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="B4407" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4408" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="B4408" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4409" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="B4409" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4410" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B4410" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4411" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B4411" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4412" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B4412" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4413" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B4413" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4414" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B4414" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4415" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B4415" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4416" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B4416" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4417" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B4417" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4418" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B4418" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4419" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B4419" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4420" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B4420" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4421" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B4421" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4422" s="11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B4422" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4423" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B4423" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4424" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B4424" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4425" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B4425" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4426" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B4426" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4427" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B4427" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4428" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B4428" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4429" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B4429" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4430" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B4430" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4431" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B4431" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4432" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B4432" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4433" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B4433" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4434" s="11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B4434" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4435" s="11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B4435" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4436" s="11" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B4436" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4437" s="11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B4437" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4438" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B4438" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4439" s="11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B4439" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4440" s="11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B4440" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4441" s="11" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B4441" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4442" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B4442" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4443" s="11" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B4443" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4444" s="11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B4444" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4445" s="11" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B4445" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4446" s="11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B4446" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4447" s="11" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B4447" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4448" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B4448" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4449" s="11" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B4449" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4450" s="11" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B4450" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4451" s="11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B4451" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4452" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B4452" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4453" s="11" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B4453" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4454" s="11" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B4454" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4455" s="11" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B4455" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4456" s="11" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B4456" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4457" s="11" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B4457" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4458" s="11" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B4458" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4459" s="11" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B4459" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4460" s="11" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B4460" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4461" s="11" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B4461" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4462" s="11" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B4462" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4463" s="11" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B4463" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4464" s="11" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B4464" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4465" s="11" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B4465" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4466" s="11" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B4466" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4467" s="11" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B4467" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4468" s="11" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B4468" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4469" s="11" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B4469" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4470" s="11" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B4470" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4471" s="11" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B4471" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4472" s="11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B4472" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4473" s="11" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B4473" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4474" s="11" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B4474" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4475" s="11" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B4475" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4476" s="11" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B4476" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4477" s="11" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B4477" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4478" s="11" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B4478" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4479" s="11" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B4479" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4480" s="11" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B4480" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4481" s="11" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B4481" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4482" s="11" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B4482" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4483" s="11" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B4483" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4484" s="11" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B4484" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4485" s="11" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B4485" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4486" s="11" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B4486" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4487" s="11" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B4487" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4488" s="11" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B4488" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4489" s="11" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B4489" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4490" s="11" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B4490" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4491" s="11" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B4491" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4492" s="11" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B4492" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4493" s="11" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B4493" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4494" s="11" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B4494" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4495" s="11" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B4495" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4496" s="11" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B4496" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4497" s="11" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B4497" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4498" s="11" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B4498" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4499" s="11" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B4499" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4500" s="11" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B4500" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4501" s="11" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B4501" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4502" s="11" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B4502" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4503" s="11" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B4503" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4504" s="11" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B4504" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4505" s="11" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B4505" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4506" s="11" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B4506" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4507" s="11" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B4507" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4508" s="11" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B4508" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4509" s="11" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B4509" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4510" s="11" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B4510" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4511" s="11" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B4511" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4512" s="11" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B4512" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4513" s="11" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B4513" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4514" s="11" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B4514" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4515" s="11" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B4515" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4516" s="11" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B4516" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4517" s="11" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B4517" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4518" s="11" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B4518" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4519" s="11" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B4519" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4520" s="11" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B4520" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4521" s="11" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B4521" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4522" s="11" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B4522" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4523" s="11" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B4523" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4524" s="11" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B4524" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4525" s="11" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B4525" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4526" s="11" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B4526" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4527" s="11" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B4527" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4528" s="11" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B4528" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4529" s="11" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B4529" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4530" s="11" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B4530" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4531" s="11" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B4531" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4532" s="11" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B4532" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4533" s="11" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B4533" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4534" s="11" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B4534" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4535" s="11" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B4535" s="10" t="s">
+        <v>4358</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B4354">
+  <conditionalFormatting sqref="B1:B4354 B4356:B4535">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Trap"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4354">
+  <conditionalFormatting sqref="B1:B4354 B4356:B4535">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Spell"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4354">
+  <conditionalFormatting sqref="B1:B4354 B4356:B4535">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Monster"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4354">
+  <conditionalFormatting sqref="B1:B4354 B4356:B4535">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Fusion"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4354">
+  <conditionalFormatting sqref="B1:B4354 B4356:B4535">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Synchro"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4354">
+  <conditionalFormatting sqref="B1:B4354 B4356:B4535">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Ritual"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>